--- a/biology/Zoologie/Alouette_à_nuque_rousse/Alouette_à_nuque_rousse.xlsx
+++ b/biology/Zoologie/Alouette_à_nuque_rousse/Alouette_à_nuque_rousse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alouette_%C3%A0_nuque_rousse</t>
+          <t>Alouette_à_nuque_rousse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mirafra africana
 L' Alouette à nuque rousse (Mirafra africana) est une espèce d'oiseaux de la famille des Alaudidae. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alouette_%C3%A0_nuque_rousse</t>
+          <t>Alouette_à_nuque_rousse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description de la famille</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Alaudidés sont des passereaux de taille petite à moyenne (10 à 23 cm de longueur, soit de la taille d'un pouillot à celle du merle), assez compacts. Ils occupent tous les milieux ouverts ou semi-ouverts de tous les continents à l'exception de l'Amérique du Sud. 
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alouette_%C3%A0_nuque_rousse</t>
+          <t>Alouette_à_nuque_rousse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Alouette à nuque rousse est une alouette de grande taille, d'aspect massif, avec des ailes larges et une queue plutôt courte.
 Son plumage, comme celui de la plupart des alouettes, est cryptique, entièrement dans les tons crème, bruns et fauves. Comme chez les autres alouettes du genre Mirafra, les rémiges primaires sont largement rousses.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alouette_%C3%A0_nuque_rousse</t>
+          <t>Alouette_à_nuque_rousse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit en Afrique subsaharienne.
 L'Alouette à nuque rousse vit en Afrique subsaharienne, surtout présente en Afrique de l'Est et australe, excepté dans sa partie occidentale. En Afrique de l'Ouest, sa distribution est très morcelée.
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Alouette_%C3%A0_nuque_rousse</t>
+          <t>Alouette_à_nuque_rousse</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Parc transfrontalier du ǀAi-ǀAis/Richtersveld</t>
         </is>
